--- a/R/analysis/data/Pt_11_Experimental.xlsx
+++ b/R/analysis/data/Pt_11_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>2.22</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>1.06</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.62</v>
+        <v>5.62</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="e">
@@ -629,14 +629,14 @@
         <v>1.44</v>
       </c>
       <c r="K4" t="n">
-        <v>6.27</v>
+        <v>1.68</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.19</v>
+        <v>4.44</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1.3</v>
       </c>
       <c r="N5" t="n">
-        <v>-5.2</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
         <v>0.35</v>
@@ -748,7 +748,7 @@
         <v>0.93</v>
       </c>
       <c r="L6" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -801,14 +801,14 @@
         <v>0.67</v>
       </c>
       <c r="K7" t="n">
-        <v>6.84</v>
+        <v>1.65</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.17</v>
+        <v>4.84</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-5.2</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -868,7 +868,7 @@
         <v>1.34</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.6</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0.93</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -973,14 +973,14 @@
         <v>0.59</v>
       </c>
       <c r="K10" t="n">
-        <v>5.78</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.42</v>
+        <v>4.08</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-5.6</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>2.22</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="O11" t="n">
         <v>0.52</v>
@@ -1094,7 +1094,7 @@
         <v>1.51</v>
       </c>
       <c r="L12" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="e">
@@ -1149,14 +1149,14 @@
         <v>1.71</v>
       </c>
       <c r="K13" t="n">
-        <v>7.6</v>
+        <v>0.53</v>
       </c>
       <c r="L13" t="n">
-        <v>0.38</v>
+        <v>5.38</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="O13" t="n">
         <v>0.09</v>
@@ -1218,7 +1218,7 @@
         <v>0.96</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="O14" t="n">
         <v>0.35</v>
@@ -1270,7 +1270,7 @@
         <v>0.69</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.86</v>
+        <v>4.86</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1325,16 +1325,16 @@
         <v>1.19</v>
       </c>
       <c r="K16" t="n">
-        <v>6.62</v>
+        <v>0.25</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.18</v>
+        <v>4.68</v>
       </c>
       <c r="M16" t="n">
-        <v>5.48</v>
+        <v>1.24</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.88</v>
+        <v>3.88</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0.76</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1499,14 +1499,14 @@
         <v>1.18</v>
       </c>
       <c r="K19" t="n">
-        <v>6.86</v>
+        <v>0.92</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.65</v>
+        <v>4.85</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>2.08</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>1.47</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.83</v>
+        <v>4.83</v>
       </c>
       <c r="M21" t="n">
         <v>0.71</v>
@@ -1677,16 +1677,16 @@
         <v>0.87</v>
       </c>
       <c r="K22" t="n">
-        <v>6.67</v>
+        <v>0.16</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.12</v>
+        <v>4.72</v>
       </c>
       <c r="M22" t="n">
-        <v>5.78</v>
+        <v>0.59</v>
       </c>
       <c r="N22" t="n">
-        <v>0.42</v>
+        <v>4.08</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0.9</v>
       </c>
       <c r="L24" t="n">
-        <v>-5.14</v>
+        <v>5.14</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
@@ -1853,16 +1853,16 @@
         <v>0.66</v>
       </c>
       <c r="K25" t="n">
-        <v>6.32</v>
+        <v>0.95</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.67</v>
+        <v>4.47</v>
       </c>
       <c r="M25" t="n">
-        <v>5.89</v>
+        <v>0.23</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.17</v>
+        <v>4.16</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0.58</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0.71</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="e">
@@ -2027,14 +2027,14 @@
         <v>1.26</v>
       </c>
       <c r="K28" t="n">
-        <v>4.35</v>
+        <v>0.95</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.68</v>
+        <v>3.08</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
